--- a/OSLockCompareDemo/lockResult.xlsx
+++ b/OSLockCompareDemo/lockResult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="27380" windowHeight="16680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1420" yWindow="460" windowWidth="27380" windowHeight="16680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="保留上下文" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
   <si>
     <t>Repeat 10's</t>
   </si>
@@ -136,6 +136,19 @@
   <si>
     <t>Single thread lock test result(us/10)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">测试环境:   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Mac OS X 10.14.1 Beta (18B57c)， Xcode: Version 9.4.1 (9F2000)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +158,7 @@
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +215,11 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -338,7 +356,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,6 +382,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="101">
@@ -801,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1391,11 +1412,24 @@
         <v>2026.8697999999999</v>
       </c>
     </row>
+    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1404,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H28"/>
+  <dimension ref="A3:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1984,10 +2018,23 @@
         <v>9.8370333333333324</v>
       </c>
     </row>
+    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/OSLockCompareDemo/lockResult.xlsx
+++ b/OSLockCompareDemo/lockResult.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="27380" windowHeight="16680" tabRatio="500"/>
+    <workbookView xWindow="-34020" yWindow="-460" windowWidth="27380" windowHeight="16680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="保留上下文" sheetId="2" r:id="rId1"/>
@@ -824,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1440,13 +1440,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:H31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
